--- a/excel/any_visits_by_month.xlsx
+++ b/excel/any_visits_by_month.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\data_viz\github_projects\mene\design_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\Data Analysis Projects\mene\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F85004B7-C575-4384-A0F5-B28A921159C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E1227-9F39-4721-B47E-A7C3CFE3FE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="any_visits_by_month" sheetId="1" r:id="rId1"/>
+    <sheet name="any_visits_by_month_revised" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>May</t>
   </si>
@@ -71,15 +72,21 @@
   </si>
   <si>
     <t>Made a visit to a green and natural space in the last 14 days?</t>
+  </si>
+  <si>
+    <t>Jan. 2021</t>
+  </si>
+  <si>
+    <t>Apr. 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0\%"/>
-    <numFmt numFmtId="168" formatCode="0\ \ \ \ "/>
+    <numFmt numFmtId="165" formatCode="0\ \ \ \ "/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -615,10 +622,10 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -678,7 +685,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="8">
     <dxf>
       <font>
         <color theme="0"/>
@@ -768,253 +775,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0EAB4E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA846"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA846"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA846"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA846"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE8713"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA846"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE8713"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE8713"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEE8713"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1334,10 +1094,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1564,7 +1324,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="100" lineWeight="1" displayEmptyCellsAs="gap" minAxisType="group" maxAxisType="custom">
+        <x14:sparklineGroup manualMax="100" lineWeight="1" displayEmptyCellsAs="gap" minAxisType="group" maxAxisType="custom" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF0EAB4E"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1592,4 +1352,287 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA15D082-47CC-451D-A71F-CB82E4FF055C}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="9.140625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="1.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>49</v>
+      </c>
+      <c r="C3" s="8">
+        <v>59</v>
+      </c>
+      <c r="D3" s="8">
+        <v>66</v>
+      </c>
+      <c r="E3" s="8">
+        <v>65</v>
+      </c>
+      <c r="F3" s="8">
+        <v>68</v>
+      </c>
+      <c r="G3" s="8">
+        <v>68</v>
+      </c>
+      <c r="H3" s="8">
+        <v>61</v>
+      </c>
+      <c r="I3" s="8">
+        <v>62</v>
+      </c>
+      <c r="J3" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9">
+        <v>27</v>
+      </c>
+      <c r="I4" s="9">
+        <v>28</v>
+      </c>
+      <c r="J4" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10">
+        <v>13</v>
+      </c>
+      <c r="I5" s="10">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8">
+        <v>63</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:J3 B9:D9">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>68</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup manualMax="100" lineWeight="1" displayEmptyCellsAs="gap" minAxisType="group" maxAxisType="custom" xr2:uid="{AE550B98-1276-4AE5-8F27-BE54AF1FA37B}">
+          <x14:colorSeries rgb="FF0EAB4E"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>any_visits_by_month_revised!B3:M3</xm:f>
+              <xm:sqref>F9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>any_visits_by_month_revised!B4:M4</xm:f>
+              <xm:sqref>F10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>any_visits_by_month_revised!B5:M5</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
 </file>